--- a/Test/Assets/StreamingAssets/ItemMain.xlsx
+++ b/Test/Assets/StreamingAssets/ItemMain.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -830,6 +830,383 @@
   </si>
   <si>
     <t>ItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Glass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item-Flower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item-Glass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item-Mushroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item-SmallTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item-MiddleTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item-BigTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小红花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红蘑菇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Mushroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/SmallTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Flower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Model/Flower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Model/Glass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Model/Mushroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Model/SmallTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/MiddleTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Model/MiddleTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/BigTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Model/BigTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>红花（学名：</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Carthamus tinctorius</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> L.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），属于菊科（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Asteraceae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）红花属（</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Carthamus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）一年生草本植物，又名刺红花、红蓝花、草红花</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。其茎直立，上部分枝；中下部茎生叶，呈披针形、卵状披针形或长椭圆形，全部叶质地坚硬，革质，两面无毛无腺点，有光泽，基部无柄，半抱茎；头状花序多数，在茎枝顶端排成伞房花序，为苞叶所围绕，小花红色、桔红色；果实为瘦果倒卵圆形，乳白色；花果期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5~8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小草（</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Microchloa indica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (L. f.) P. Beauv.）是一种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>禾本科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>的植物，《</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>中国植物志</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>·第10(1)卷》有记载，小草形态秆纤细，无毛，高10-25厘米，直径约0.5毫米，叶片上有小绒毛。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>红菇是红菇科红菇属植物，别名红蕈、正红菇、大红菇、美丽红菇、黄孢子红菇等，</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是一类大型菌根真菌，是一种名贵的野生食（药）用菌。在世界范围内分布广泛，我国主要分布于福建、云南、江西、辽宁、河南、四川、广西等省区，海拔为300-1000m山林地带，植被和土壤垂直分布明显，坡度10°-45°的缓坡地至斜坡地。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>树在减少土地侵蚀及调整气候上相当的重要，树可以从空气中吸收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>二氧化碳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，将大量的碳储存在组织内。树木和森林是许多物种的栖息地。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>热带雨林</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>是世界上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>生物多样性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>最丰富的地方之一。树可以提供遮阴及保护，木材可供建筑用，木炭可以用来加热及烹煮，果子可以用来作为食物。在世界各地的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>森林面积</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>正在下降，目的是要增加可以农业使用的土地。由于树的长寿及实用，在许多神话中也有树的出现。</t>
+    </r>
+  </si>
+  <si>
+    <t>Page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -837,7 +1214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -902,6 +1279,34 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3366CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -920,19 +1325,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1210,21 +1618,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1235,16 +1644,19 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1255,16 +1667,19 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1274,17 +1689,20 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1294,17 +1712,20 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1314,17 +1735,20 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>48</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1334,17 +1758,20 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>49</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1354,17 +1781,20 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>50</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1374,17 +1804,20 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
         <v>51</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1394,17 +1827,20 @@
       <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>52</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1414,17 +1850,20 @@
       <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
         <v>53</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1434,19 +1873,163 @@
       <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
         <v>54</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>3</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G14" r:id="rId1" display="https://baike.baidu.com/item/%E7%9C%9F%E8%8F%8C/713829?fromModule=lemma_inlink"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Test/Assets/StreamingAssets/ItemMain.xlsx
+++ b/Test/Assets/StreamingAssets/ItemMain.xlsx
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HorrorPuzzleItems/Battery/Icons/Icon_Battery_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PrefabPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -53,26 +49,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HorrorPuzzleItems/Battery/Prefabs/BatteryC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HorrorPuzzleItems/Gear/Icons/Icon_Gear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HorrorPuzzleItems/Gear/Prefabs/Gear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>废纸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Icon/Paper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>废电池</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Icon/Bottle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,18 +73,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Icon/Medicine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>汉堡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Icon/Hamburger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item-Battery</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,14 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Icon/Fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon/Sandwich</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item-Sandwich</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,10 +122,6 @@
   </si>
   <si>
     <t>陶瓷碎片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon/Ceramic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -801,42 +757,10 @@
     <t>陶瓷不太容易回收。陶胎是由无机氧化物烧结而成，如果想把陶瓷碎片再次烧结一起，就没那么容易了。所以陶瓷制品一般都是作为不可回收物品。陶瓷对环境造成的污染不是很大，不过大家在扔陶瓷碎片的时候，最好将陶瓷碎片装在垃圾袋中，以免环保工人在处理垃圾的过程中，不慎被陶瓷扎破手指。</t>
   </si>
   <si>
-    <t>Prefab/Model/Paper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Model/Bottle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Model/Medicine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Model/Hamburger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Model/Fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Model/Sandwich</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Model/Ceramic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ItemType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Icon/Glass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item-Flower</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -882,50 +806,6 @@
   </si>
   <si>
     <t>大树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon/Mushroom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon/SmallTree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon/Flower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Model/Flower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Model/Glass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Model/Mushroom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Model/SmallTree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon/MiddleTree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Model/MiddleTree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon/BigTree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Model/BigTree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1207,6 +1087,126 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Battery_C.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigTree.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiddleTree.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mushroom.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmallTree.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glass.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flower.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceramic.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sandwich.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hamburger.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medicine.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bottle.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Gear.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatteryC.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gear.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bottle.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medicine.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hamburger.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sandwich.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceramic.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flower.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glass.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mushroom.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmallTree.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiddleTree.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigTree.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1621,7 +1621,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1644,16 +1644,16 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1667,361 +1667,361 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
         <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" t="s">
-        <v>69</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F14">
         <v>4</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
         <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>70</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F15">
         <v>4</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F16">
         <v>4</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F17">
         <v>4</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Test/Assets/StreamingAssets/ItemMain.xlsx
+++ b/Test/Assets/StreamingAssets/ItemMain.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6B3A9B-F69D-4112-8268-EE4E2900D1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1190,10 +1191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Glass.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mushroom.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1207,13 +1204,17 @@
   </si>
   <si>
     <t>BigTree.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grass.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1617,23 +1618,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1656,7 +1657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1679,7 +1680,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1702,7 +1703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1725,7 +1726,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1748,7 +1749,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1771,7 +1772,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1794,7 +1795,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1817,7 +1818,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1840,7 +1841,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1863,7 +1864,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1909,7 +1910,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1923,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -1932,7 +1933,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -1955,7 +1956,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1969,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -1978,7 +1979,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1992,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16">
         <v>4</v>
@@ -2001,7 +2002,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -2015,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -2027,7 +2028,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G14" r:id="rId1" display="https://baike.baidu.com/item/%E7%9C%9F%E8%8F%8C/713829?fromModule=lemma_inlink"/>
+    <hyperlink ref="G14" r:id="rId1" display="https://baike.baidu.com/item/%E7%9C%9F%E8%8F%8C/713829?fromModule=lemma_inlink" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
